--- a/Epidemiología/cr.xlsx
+++ b/Epidemiología/cr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dredondo\Dropbox\Transporte_interno\Máster\Ciencia de Datos\TFM\Epidemiologia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dredondo\Dropbox\Transporte_interno\Máster\Ciencia de Datos\TFM\Epidemiología\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4669EDFA-67EE-4DA2-A977-FBC21CD17CAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AEA158-7FBB-4783-ABD9-41C921F44B8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="10" r:id="rId1"/>
@@ -148,9 +148,6 @@
     <t>Europa, 2018</t>
   </si>
   <si>
-    <t>ECIS (EU+EFTA)</t>
-  </si>
-  <si>
     <t>ASR-E new</t>
   </si>
   <si>
@@ -242,6 +239,9 @@
   </si>
   <si>
     <t>Europa tiene otros paises, no solo EU+EFTA</t>
+  </si>
+  <si>
+    <t>ECIS (Europa)</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -444,18 +444,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,8 +452,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1170,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6F4DA2-4555-4318-B577-61845DD27555}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1187,10 +1184,10 @@
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="24"/>
       <c r="B1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>60</v>
       </c>
       <c r="D1" s="24"/>
     </row>
@@ -1202,7 +1199,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>24</v>
@@ -1211,10 +1208,10 @@
         <v>25</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1241,149 +1238,149 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="32">
-        <v>217387</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33">
-        <v>84.6</v>
-      </c>
-      <c r="F6" s="33">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="G6" s="33">
-        <v>57.4</v>
-      </c>
-      <c r="H6" s="33">
-        <v>90.3</v>
+        <v>65</v>
+      </c>
+      <c r="C6" s="36">
+        <v>271600</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="38">
+        <v>75.5</v>
+      </c>
+      <c r="F6" s="38">
+        <v>37.5</v>
+      </c>
+      <c r="G6" s="38">
+        <v>55.9</v>
+      </c>
+      <c r="H6" s="38">
+        <v>87.7</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="32">
-        <v>3444</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33">
-        <v>1.3</v>
-      </c>
-      <c r="F7" s="33">
-        <v>0.7</v>
-      </c>
-      <c r="G7" s="33">
-        <v>1</v>
-      </c>
-      <c r="H7" s="33">
-        <v>1.4</v>
+        <v>66</v>
+      </c>
+      <c r="C7" s="36">
+        <v>3919</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="38">
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="37">
         <f>C6+C7</f>
-        <v>220831</v>
-      </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34">
+        <v>275519</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37">
         <f>E6+E7</f>
-        <v>85.899999999999991</v>
-      </c>
-      <c r="F8" s="34">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="F8" s="37">
         <f>F6+F7</f>
-        <v>39</v>
-      </c>
-      <c r="G8" s="34">
+        <v>38.1</v>
+      </c>
+      <c r="G8" s="37">
         <f>G6+G7</f>
-        <v>58.4</v>
-      </c>
-      <c r="H8" s="34">
+        <v>56.8</v>
+      </c>
+      <c r="H8" s="37">
         <f>H6+H7</f>
-        <v>91.7</v>
+        <v>88.9</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="35">
+        <v>65</v>
+      </c>
+      <c r="C9" s="39">
         <v>22744</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39">
         <v>99.9</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="36">
         <v>45.2</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="36">
         <v>67.7</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="36">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="35">
+        <v>66</v>
+      </c>
+      <c r="C10" s="39">
         <v>269</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35">
+      <c r="D10" s="39"/>
+      <c r="E10" s="39">
         <v>1.2</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="36">
         <v>0.6</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="36">
         <v>0.8</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="36">
         <v>1.2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="34">
+        <v>42</v>
+      </c>
+      <c r="C11" s="37">
         <f>C9+C10</f>
         <v>23013</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34">
+      <c r="D11" s="37"/>
+      <c r="E11" s="37">
         <f>E9+E10</f>
         <v>101.10000000000001</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="37">
         <f>F9+F10</f>
         <v>45.800000000000004</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="37">
         <f>G9+G10</f>
         <v>68.5</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="37">
         <f>H9+H10</f>
         <v>107.2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="28">
         <v>26044</v>
@@ -1402,14 +1399,14 @@
         <v>118.2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="36"/>
+      <c r="B13" s="32"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="36"/>
+      <c r="B14" s="32"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="26" t="s">
@@ -1419,7 +1416,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>24</v>
@@ -1428,20 +1425,20 @@
         <v>25</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="33">
         <v>823303</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="33">
         <v>2</v>
       </c>
       <c r="E16" s="30">
@@ -1458,154 +1455,154 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="32">
-        <v>170794</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33">
-        <v>63.9</v>
-      </c>
-      <c r="F17" s="33">
-        <v>24.6</v>
-      </c>
-      <c r="G17" s="33">
-        <v>36.4</v>
-      </c>
-      <c r="H17" s="33">
-        <v>56.2</v>
+        <v>65</v>
+      </c>
+      <c r="C17" s="36">
+        <v>228067</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="38">
+        <v>59.3</v>
+      </c>
+      <c r="F17" s="38">
+        <v>24.2</v>
+      </c>
+      <c r="G17" s="38">
+        <v>35.6</v>
+      </c>
+      <c r="H17" s="38">
+        <v>54.4</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="32">
-        <v>7081</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33">
-        <v>2.7</v>
-      </c>
-      <c r="F18" s="33">
-        <v>1.3</v>
-      </c>
-      <c r="G18" s="33">
-        <v>1.8</v>
-      </c>
-      <c r="H18" s="33">
-        <v>2.4</v>
+        <v>66</v>
+      </c>
+      <c r="C18" s="36">
+        <v>8034</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="38">
+        <v>2.1</v>
+      </c>
+      <c r="F18" s="38">
+        <v>1</v>
+      </c>
+      <c r="G18" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="H18" s="38">
+        <v>1.9</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="37">
         <f>C17+C18</f>
-        <v>177875</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34">
+        <v>236101</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37">
         <f>E17+E18</f>
-        <v>66.599999999999994</v>
-      </c>
-      <c r="F19" s="34">
+        <v>61.4</v>
+      </c>
+      <c r="F19" s="37">
         <f>F17+F18</f>
-        <v>25.900000000000002</v>
-      </c>
-      <c r="G19" s="34">
+        <v>25.2</v>
+      </c>
+      <c r="G19" s="37">
         <f>G17+G18</f>
-        <v>38.199999999999996</v>
-      </c>
-      <c r="H19" s="34">
+        <v>37</v>
+      </c>
+      <c r="H19" s="37">
         <f>H17+H18</f>
-        <v>58.6</v>
+        <v>56.3</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="32">
+        <v>65</v>
+      </c>
+      <c r="C20" s="36">
         <v>14428</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33">
+      <c r="D20" s="36"/>
+      <c r="E20" s="38">
         <v>61</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="38">
         <v>23.3</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="38">
         <v>34.4</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="38">
         <v>52.7</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="32">
+        <v>66</v>
+      </c>
+      <c r="C21" s="36">
         <v>214</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33">
+      <c r="D21" s="36"/>
+      <c r="E21" s="38">
         <v>0.9</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="38">
         <v>0.3</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="38">
         <v>0.5</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="38">
         <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="34">
+        <v>42</v>
+      </c>
+      <c r="C22" s="37">
         <f>C20+C21</f>
         <v>14642</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37">
         <f>E20+E21</f>
         <v>61.9</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="37">
         <f>F20+F21</f>
         <v>23.6</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="37">
         <f>G20+G21</f>
         <v>34.9</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="37">
         <f>H20+H21</f>
         <v>53.5</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="37">
+        <v>40</v>
+      </c>
+      <c r="C23" s="33">
         <v>18187</v>
       </c>
-      <c r="D23" s="37"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="30">
         <v>75.5</v>
       </c>
@@ -1619,11 +1616,11 @@
         <v>65.7</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="36"/>
+      <c r="B24" s="32"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="26" t="s">
@@ -1633,7 +1630,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="27" t="s">
         <v>24</v>
@@ -1642,20 +1639,20 @@
         <v>25</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="33">
         <v>1849518</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="33">
         <v>3</v>
       </c>
       <c r="E26" s="30">
@@ -1672,154 +1669,154 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="32">
-        <v>388181</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="F27" s="33">
-        <v>30.9</v>
-      </c>
-      <c r="G27" s="33">
-        <v>45.9</v>
-      </c>
-      <c r="H27" s="33">
-        <v>71.3</v>
+        <v>65</v>
+      </c>
+      <c r="C27" s="36">
+        <v>499667</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="E27" s="38">
+        <v>67.2</v>
+      </c>
+      <c r="F27" s="38">
+        <v>30</v>
+      </c>
+      <c r="G27" s="38">
+        <v>44.4</v>
+      </c>
+      <c r="H27" s="38">
+        <v>68.400000000000006</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="32">
-        <v>10525</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33">
-        <v>2</v>
-      </c>
-      <c r="F28" s="33">
-        <v>1</v>
-      </c>
-      <c r="G28" s="33">
-        <v>1.4</v>
-      </c>
-      <c r="H28" s="33">
-        <v>1.9</v>
+        <v>66</v>
+      </c>
+      <c r="C28" s="36">
+        <v>11953</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="38">
+        <v>1.6</v>
+      </c>
+      <c r="F28" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="G28" s="38">
+        <v>1.2</v>
+      </c>
+      <c r="H28" s="38">
+        <v>1.6</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="37">
         <f>C27+C28</f>
-        <v>398706</v>
-      </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34">
+        <v>511620</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37">
         <f>E27+E28</f>
-        <v>76.099999999999994</v>
-      </c>
-      <c r="F29" s="34">
+        <v>68.8</v>
+      </c>
+      <c r="F29" s="37">
         <f>F27+F28</f>
-        <v>31.9</v>
-      </c>
-      <c r="G29" s="34">
+        <v>30.8</v>
+      </c>
+      <c r="G29" s="37">
         <f>G27+G28</f>
-        <v>47.3</v>
-      </c>
-      <c r="H29" s="34">
+        <v>45.6</v>
+      </c>
+      <c r="H29" s="37">
         <f>H27+H28</f>
-        <v>73.2</v>
+        <v>70</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="32">
+        <v>65</v>
+      </c>
+      <c r="C30" s="36">
         <v>37172</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32">
+      <c r="D30" s="36"/>
+      <c r="E30" s="36">
         <v>80.099999999999994</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="36">
         <v>33.4</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="36">
         <v>49.7</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="36">
         <v>76.5</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="32">
+        <v>66</v>
+      </c>
+      <c r="C31" s="36">
         <v>483</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32">
+      <c r="D31" s="36"/>
+      <c r="E31" s="36">
         <v>1</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="36">
         <v>0.5</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G31" s="36">
         <v>0.7</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="34">
+        <v>42</v>
+      </c>
+      <c r="C32" s="37">
         <f>C30+C31</f>
         <v>37655</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34">
+      <c r="D32" s="37"/>
+      <c r="E32" s="37">
         <f>E30+E31</f>
         <v>81.099999999999994</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="37">
         <f>F30+F31</f>
         <v>33.9</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="37">
         <f>G30+G31</f>
         <v>50.400000000000006</v>
       </c>
-      <c r="H32" s="34">
+      <c r="H32" s="37">
         <f>H30+H31</f>
         <v>77.5</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="37">
+        <v>40</v>
+      </c>
+      <c r="C33" s="33">
         <v>44231</v>
       </c>
-      <c r="D33" s="37"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="30">
         <v>93.8</v>
       </c>
@@ -1833,27 +1830,27 @@
         <v>91.9</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.35">
@@ -1888,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A55D492-D4A4-413C-8B30-82176E41C2CB}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1906,16 +1903,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="26" t="s">
@@ -1925,7 +1922,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>24</v>
@@ -1934,20 +1931,20 @@
         <v>25</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="33">
         <v>484224</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="33">
         <v>4</v>
       </c>
       <c r="E5" s="30">
@@ -1964,43 +1961,43 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="40">
-        <v>98237</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="F6" s="33">
-        <v>15.1</v>
-      </c>
-      <c r="G6" s="33">
-        <v>24</v>
-      </c>
-      <c r="H6" s="33">
-        <v>42.1</v>
+        <v>65</v>
+      </c>
+      <c r="C6" s="36">
+        <v>129706</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="38">
+        <v>36.1</v>
+      </c>
+      <c r="F6" s="38">
+        <v>16.2</v>
+      </c>
+      <c r="G6" s="38">
+        <v>25.4</v>
+      </c>
+      <c r="H6" s="38">
+        <v>43.8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="40">
-        <v>1188</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="33">
+        <v>66</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1449</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="38">
         <v>0.2</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="38">
         <v>0.3</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="38">
         <v>0.5</v>
       </c>
     </row>
@@ -2008,39 +2005,39 @@
       <c r="B8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="33">
         <f>C6+C7</f>
-        <v>99425</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37">
+        <v>131155</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33">
         <f>E6+E7</f>
-        <v>38.700000000000003</v>
-      </c>
-      <c r="F8" s="37">
+        <v>36.5</v>
+      </c>
+      <c r="F8" s="33">
         <f>F6+F7</f>
-        <v>15.299999999999999</v>
-      </c>
-      <c r="G8" s="37">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G8" s="33">
         <f>G6+G7</f>
-        <v>24.3</v>
-      </c>
-      <c r="H8" s="37">
+        <v>25.7</v>
+      </c>
+      <c r="H8" s="33">
         <f>H6+H7</f>
-        <v>42.6</v>
+        <v>44.3</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="37">
+        <v>42</v>
+      </c>
+      <c r="C9" s="33">
         <v>9222</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="30">
         <v>40.299999999999997</v>
       </c>
@@ -2054,14 +2051,14 @@
         <v>44.4</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="36"/>
+      <c r="B10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="36"/>
+      <c r="B11" s="32"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="26" t="s">
@@ -2071,7 +2068,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>24</v>
@@ -2080,20 +2077,20 @@
         <v>25</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="33">
         <v>396568</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="33">
         <v>3</v>
       </c>
       <c r="E13" s="30">
@@ -2110,83 +2107,83 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="32">
-        <v>78737</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33">
-        <v>29.5</v>
-      </c>
-      <c r="F14" s="33">
-        <v>8.9</v>
-      </c>
-      <c r="G14" s="33">
-        <v>14</v>
-      </c>
-      <c r="H14" s="33">
-        <v>24.5</v>
+        <v>65</v>
+      </c>
+      <c r="C14" s="36">
+        <v>112777</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="38">
+        <v>29.3</v>
+      </c>
+      <c r="F14" s="38">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G14" s="38">
+        <v>15.3</v>
+      </c>
+      <c r="H14" s="38">
+        <v>26.1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="32">
-        <v>1838</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33">
-        <v>0.7</v>
-      </c>
-      <c r="F15" s="33">
+        <v>66</v>
+      </c>
+      <c r="C15" s="36">
+        <v>2282</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="F15" s="38">
         <v>0.2</v>
       </c>
-      <c r="G15" s="33">
-        <v>0.4</v>
-      </c>
-      <c r="H15" s="33">
-        <v>0.6</v>
+      <c r="G15" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="38">
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="33">
         <f>C14+C15</f>
-        <v>80575</v>
-      </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37">
+        <v>115059</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33">
         <f>E14+E15</f>
-        <v>30.2</v>
-      </c>
-      <c r="F16" s="37">
+        <v>29.900000000000002</v>
+      </c>
+      <c r="F16" s="33">
         <f>F14+F15</f>
-        <v>9.1</v>
-      </c>
-      <c r="G16" s="37">
+        <v>10</v>
+      </c>
+      <c r="G16" s="33">
         <f>G14+G15</f>
-        <v>14.4</v>
-      </c>
-      <c r="H16" s="37">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="H16" s="33">
         <f>H14+H15</f>
-        <v>25.1</v>
+        <v>26.6</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="37">
+        <v>42</v>
+      </c>
+      <c r="C17" s="33">
         <v>6066</v>
       </c>
-      <c r="D17" s="37"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="30">
         <v>25.5</v>
       </c>
@@ -2200,7 +2197,7 @@
         <v>20.7</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
@@ -2211,7 +2208,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="27" t="s">
         <v>24</v>
@@ -2220,26 +2217,26 @@
         <v>25</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="33">
         <v>880792</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="33">
         <v>2</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="33">
         <v>11.5</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="33">
         <v>8.9</v>
       </c>
       <c r="G20" s="30"/>
@@ -2250,43 +2247,43 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="32">
-        <v>176974</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="F21" s="32">
-        <v>11.7</v>
-      </c>
-      <c r="G21" s="33">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="H21" s="33">
-        <v>32.1</v>
+        <v>65</v>
+      </c>
+      <c r="C21" s="36">
+        <v>242483</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36">
+        <v>32.6</v>
+      </c>
+      <c r="F21" s="36">
+        <v>12.6</v>
+      </c>
+      <c r="G21" s="38">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H21" s="38">
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="32">
-        <v>3026</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32">
-        <v>0.6</v>
-      </c>
-      <c r="F22" s="32">
+        <v>66</v>
+      </c>
+      <c r="C22" s="36">
+        <v>3731</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="36">
         <v>0.2</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="38">
         <v>0.3</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="38">
         <v>0.5</v>
       </c>
     </row>
@@ -2294,39 +2291,39 @@
       <c r="B23" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="33">
         <f>C21+C22</f>
-        <v>180000</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37">
+        <v>246214</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33">
         <f>E21+E22</f>
-        <v>34.4</v>
-      </c>
-      <c r="F23" s="37">
+        <v>33.1</v>
+      </c>
+      <c r="F23" s="33">
         <f>F21+F22</f>
-        <v>11.899999999999999</v>
-      </c>
-      <c r="G23" s="37">
+        <v>12.799999999999999</v>
+      </c>
+      <c r="G23" s="33">
         <f>G21+G22</f>
-        <v>18.7</v>
-      </c>
-      <c r="H23" s="37">
+        <v>19.900000000000002</v>
+      </c>
+      <c r="H23" s="33">
         <f>H21+H22</f>
-        <v>32.6</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="37">
+        <v>42</v>
+      </c>
+      <c r="C24" s="33">
         <v>15288</v>
       </c>
-      <c r="D24" s="37"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="30">
         <v>32.700000000000003</v>
       </c>
@@ -2340,17 +2337,41 @@
         <v>30.9</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C31" s="25" t="str">
         <f>IF(SUM(C5,C13)=C20,"ok","REVISAR")</f>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C32" s="25" t="str">
+        <f t="shared" ref="C32:C35" si="0">IF(SUM(C6,C14)=C21,"ok","REVISAR")</f>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C33" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C34" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C35" s="25" t="str">
+        <f>IF(SUM(C9,C17)=C24,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
     </row>
@@ -2376,7 +2397,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -2428,7 +2449,7 @@
         <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -2457,7 +2478,7 @@
         <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -2546,7 +2567,7 @@
         <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -2575,7 +2596,7 @@
         <v>35</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -2658,7 +2679,7 @@
         <v>35</v>
       </c>
       <c r="K16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
@@ -2687,7 +2708,7 @@
         <v>35</v>
       </c>
       <c r="K17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
@@ -2803,17 +2824,17 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2823,42 +2844,42 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Epidemiología/cr.xlsx
+++ b/Epidemiología/cr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dredondo\Dropbox\Transporte_interno\Máster\Ciencia de Datos\TFM\Epidemiología\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AEA158-7FBB-4783-ABD9-41C921F44B8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAE1036-F46F-49E1-B5AB-C27B0C8E805A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="10" r:id="rId1"/>
@@ -248,8 +248,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -377,7 +378,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -463,6 +464,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1167,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6F4DA2-4555-4318-B577-61845DD27555}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:H29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1858,6 +1862,10 @@
         <f>IF(SUM(C5,C16)=C26,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
+      <c r="E40" s="40">
+        <f>C12/C33</f>
+        <v>0.58881779747236096</v>
+      </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C41" s="25" t="str">
@@ -1887,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A55D492-D4A4-413C-8B30-82176E41C2CB}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2353,7 +2361,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C32" s="25" t="str">
-        <f t="shared" ref="C32:C35" si="0">IF(SUM(C6,C14)=C21,"ok","REVISAR")</f>
+        <f t="shared" ref="C32:C34" si="0">IF(SUM(C6,C14)=C21,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
     </row>

--- a/Epidemiología/cr.xlsx
+++ b/Epidemiología/cr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dredondo\Dropbox\Transporte_interno\Máster\Ciencia de Datos\TFM\Epidemiología\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAE1036-F46F-49E1-B5AB-C27B0C8E805A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684023F3-47DA-4F2E-A029-8E230DB7E090}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="10" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="70">
   <si>
     <t>Sexo</t>
   </si>
@@ -250,7 +250,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -465,7 +465,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6F4DA2-4555-4318-B577-61845DD27555}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1893,23 +1893,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A55D492-D4A4-413C-8B30-82176E41C2CB}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="2"/>
     <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="25"/>
-    <col min="4" max="4" width="5.58203125" style="25" customWidth="1"/>
-    <col min="5" max="8" width="10.83203125" style="25"/>
-    <col min="9" max="16384" width="10.6640625" style="2"/>
+    <col min="3" max="7" width="10.83203125" style="25"/>
+    <col min="8" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="24" t="s">
         <v>58</v>
       </c>
@@ -1920,9 +1918,8 @@
         <v>59</v>
       </c>
       <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="26" t="s">
         <v>26</v>
       </c>
@@ -1930,86 +1927,78 @@
         <v>23</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="33">
         <v>484224</v>
       </c>
-      <c r="D5" s="33">
-        <v>4</v>
+      <c r="D5" s="30">
+        <v>12.6</v>
       </c>
       <c r="E5" s="30">
-        <v>12.6</v>
-      </c>
-      <c r="F5" s="30">
         <v>10.8</v>
       </c>
+      <c r="F5" s="30"/>
       <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="36">
         <v>129706</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="38">
+        <v>36.1</v>
+      </c>
       <c r="E6" s="38">
-        <v>36.1</v>
+        <v>16.2</v>
       </c>
       <c r="F6" s="38">
-        <v>16.2</v>
+        <v>25.4</v>
       </c>
       <c r="G6" s="38">
-        <v>25.4</v>
-      </c>
-      <c r="H6" s="38">
         <v>43.8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="31" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="36">
         <v>1449</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="38">
+        <v>0.4</v>
+      </c>
       <c r="E7" s="38">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F7" s="38">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G7" s="38">
-        <v>0.3</v>
-      </c>
-      <c r="H7" s="38">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="26" t="s">
         <v>37</v>
       </c>
@@ -2017,58 +2006,56 @@
         <f>C6+C7</f>
         <v>131155</v>
       </c>
-      <c r="D8" s="33"/>
+      <c r="D8" s="33">
+        <f>D6+D7</f>
+        <v>36.5</v>
+      </c>
       <c r="E8" s="33">
         <f>E6+E7</f>
-        <v>36.5</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F8" s="33">
         <f>F6+F7</f>
-        <v>16.399999999999999</v>
+        <v>25.7</v>
       </c>
       <c r="G8" s="33">
         <f>G6+G7</f>
-        <v>25.7</v>
-      </c>
-      <c r="H8" s="33">
-        <f>H6+H7</f>
         <v>44.3</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="33">
         <v>9222</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="30">
+        <v>40.299999999999997</v>
+      </c>
       <c r="E9" s="30">
-        <v>40.299999999999997</v>
+        <v>15.8</v>
       </c>
       <c r="F9" s="30">
-        <v>15.8</v>
+        <v>25.1</v>
       </c>
       <c r="G9" s="30">
-        <v>25.1</v>
-      </c>
-      <c r="H9" s="30">
         <v>44.4</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="32"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="32"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="26" t="s">
         <v>27</v>
       </c>
@@ -2076,86 +2063,78 @@
         <v>23</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="33">
         <v>396568</v>
       </c>
-      <c r="D13" s="33">
-        <v>3</v>
+      <c r="D13" s="30">
+        <v>10.5</v>
       </c>
       <c r="E13" s="30">
-        <v>10.5</v>
-      </c>
-      <c r="F13" s="30">
         <v>7.2</v>
       </c>
+      <c r="F13" s="30"/>
       <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="36">
         <v>112777</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="38">
+        <v>29.3</v>
+      </c>
       <c r="E14" s="38">
-        <v>29.3</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F14" s="38">
-        <v>9.8000000000000007</v>
+        <v>15.3</v>
       </c>
       <c r="G14" s="38">
-        <v>15.3</v>
-      </c>
-      <c r="H14" s="38">
         <v>26.1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="31" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="36">
         <v>2282</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="38">
+        <v>0.6</v>
+      </c>
       <c r="E15" s="38">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F15" s="38">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G15" s="38">
-        <v>0.3</v>
-      </c>
-      <c r="H15" s="38">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="26" t="s">
         <v>37</v>
       </c>
@@ -2163,52 +2142,50 @@
         <f>C14+C15</f>
         <v>115059</v>
       </c>
-      <c r="D16" s="33"/>
+      <c r="D16" s="33">
+        <f>D14+D15</f>
+        <v>29.900000000000002</v>
+      </c>
       <c r="E16" s="33">
         <f>E14+E15</f>
-        <v>29.900000000000002</v>
+        <v>10</v>
       </c>
       <c r="F16" s="33">
         <f>F14+F15</f>
-        <v>10</v>
+        <v>15.600000000000001</v>
       </c>
       <c r="G16" s="33">
         <f>G14+G15</f>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="H16" s="33">
-        <f>H14+H15</f>
         <v>26.6</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="33">
         <v>6066</v>
       </c>
-      <c r="D17" s="33"/>
+      <c r="D17" s="30">
+        <v>25.5</v>
+      </c>
       <c r="E17" s="30">
-        <v>25.5</v>
+        <v>7.5</v>
       </c>
       <c r="F17" s="30">
-        <v>7.5</v>
+        <v>11.9</v>
       </c>
       <c r="G17" s="30">
-        <v>11.9</v>
-      </c>
-      <c r="H17" s="30">
         <v>20.7</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="26" t="s">
         <v>28</v>
       </c>
@@ -2216,22 +2193,19 @@
         <v>23</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="26" t="s">
         <v>36</v>
       </c>
@@ -2239,63 +2213,58 @@
         <v>880792</v>
       </c>
       <c r="D20" s="33">
-        <v>2</v>
+        <v>11.5</v>
       </c>
       <c r="E20" s="33">
-        <v>11.5</v>
-      </c>
-      <c r="F20" s="33">
         <v>8.9</v>
       </c>
+      <c r="F20" s="30"/>
       <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="36">
         <v>242483</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="36">
+        <v>32.6</v>
+      </c>
       <c r="E21" s="36">
-        <v>32.6</v>
-      </c>
-      <c r="F21" s="36">
         <v>12.6</v>
       </c>
+      <c r="F21" s="38">
+        <v>19.600000000000001</v>
+      </c>
       <c r="G21" s="38">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="H21" s="38">
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="31" t="s">
         <v>66</v>
       </c>
       <c r="C22" s="36">
         <v>3731</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="36">
+        <v>0.5</v>
+      </c>
       <c r="E22" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="G22" s="38">
         <v>0.5</v>
       </c>
-      <c r="F22" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="G22" s="38">
-        <v>0.3</v>
-      </c>
-      <c r="H22" s="38">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="26" t="s">
         <v>37</v>
       </c>
@@ -2303,63 +2272,61 @@
         <f>C21+C22</f>
         <v>246214</v>
       </c>
-      <c r="D23" s="33"/>
+      <c r="D23" s="33">
+        <f>D21+D22</f>
+        <v>33.1</v>
+      </c>
       <c r="E23" s="33">
         <f>E21+E22</f>
-        <v>33.1</v>
+        <v>12.799999999999999</v>
       </c>
       <c r="F23" s="33">
         <f>F21+F22</f>
-        <v>12.799999999999999</v>
+        <v>19.900000000000002</v>
       </c>
       <c r="G23" s="33">
         <f>G21+G22</f>
-        <v>19.900000000000002</v>
-      </c>
-      <c r="H23" s="33">
-        <f>H21+H22</f>
         <v>33.799999999999997</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="33">
         <v>15288</v>
       </c>
-      <c r="D24" s="33"/>
+      <c r="D24" s="30">
+        <v>32.700000000000003</v>
+      </c>
       <c r="E24" s="30">
-        <v>32.700000000000003</v>
+        <v>11.2</v>
       </c>
       <c r="F24" s="30">
-        <v>11.2</v>
+        <v>17.7</v>
       </c>
       <c r="G24" s="30">
-        <v>17.7</v>
-      </c>
-      <c r="H24" s="30">
         <v>30.9</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C31" s="25" t="str">
         <f>IF(SUM(C5,C13)=C20,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C32" s="25" t="str">
         <f t="shared" ref="C32:C34" si="0">IF(SUM(C6,C14)=C21,"ok","REVISAR")</f>
         <v>ok</v>

--- a/Epidemiología/cr.xlsx
+++ b/Epidemiología/cr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dredondo\Dropbox\Transporte_interno\Máster\Ciencia de Datos\TFM\Epidemiología\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684023F3-47DA-4F2E-A029-8E230DB7E090}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E4F349-B857-43E1-82DA-6A090895069C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="10" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="68">
   <si>
     <t>Sexo</t>
   </si>
@@ -233,12 +233,6 @@
   </si>
   <si>
     <t>eu-c21</t>
-  </si>
-  <si>
-    <t>https://gco.iarc.fr/today/data-sources-methods#population-dictionnary</t>
-  </si>
-  <si>
-    <t>Europa tiene otros paises, no solo EU+EFTA</t>
   </si>
   <si>
     <t>ECIS (Europa)</t>
@@ -1308,7 +1302,7 @@
         <v>88.9</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -1525,7 +1519,7 @@
         <v>56.3</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
@@ -1739,7 +1733,7 @@
         <v>70</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
@@ -1895,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A55D492-D4A4-413C-8B30-82176E41C2CB}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2023,7 +2017,7 @@
         <v>44.3</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -2159,7 +2153,7 @@
         <v>26.6</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
@@ -2289,7 +2283,7 @@
         <v>33.799999999999997</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
@@ -2357,10 +2351,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2F39B0-EB7D-46B3-BE58-64D3EE1B3A5F}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" activeCellId="5" sqref="C5:D7 G5:H7 C11:D13 G11:H13 C16:D18 G16:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2370,12 +2364,12 @@
     <col min="8" max="8" width="13.75" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>26</v>
       </c>
@@ -2398,7 +2392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>36</v>
       </c>
@@ -2423,11 +2417,8 @@
       <c r="I5" t="s">
         <v>35</v>
       </c>
-      <c r="K5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>37</v>
       </c>
@@ -2452,11 +2443,8 @@
       <c r="I6" t="s">
         <v>35</v>
       </c>
-      <c r="K6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
@@ -2482,18 +2470,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C8" s="20"/>
       <c r="E8" s="20"/>
       <c r="G8" s="20"/>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C9" s="20"/>
       <c r="E9" s="20"/>
       <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
@@ -2516,7 +2504,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>36</v>
       </c>
@@ -2541,11 +2529,8 @@
       <c r="I11" t="s">
         <v>35</v>
       </c>
-      <c r="K11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>37</v>
       </c>
@@ -2570,11 +2555,8 @@
       <c r="I12" t="s">
         <v>35</v>
       </c>
-      <c r="K12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="11" t="s">
         <v>22</v>
       </c>
@@ -2600,12 +2582,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C14" s="20"/>
       <c r="E14" s="20"/>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
@@ -2628,7 +2610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" s="11" t="s">
         <v>36</v>
       </c>
@@ -2653,11 +2635,8 @@
       <c r="I16" t="s">
         <v>35</v>
       </c>
-      <c r="K16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="11" t="s">
         <v>37</v>
       </c>
@@ -2682,11 +2661,8 @@
       <c r="I17" t="s">
         <v>35</v>
       </c>
-      <c r="K17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
@@ -2712,7 +2688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C21" s="13" t="str">
         <f>IF(C5+C11=C16,"ok","revisar")</f>
         <v>ok</v>
@@ -2726,7 +2702,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C22" s="13" t="str">
         <f>IF(C6+C12=C17,"ok","revisar")</f>
         <v>ok</v>
@@ -2740,7 +2716,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C23" s="13" t="str">
         <f>IF(C7+C13=C18,"ok","revisar")</f>
         <v>ok</v>
@@ -2754,7 +2730,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C24" s="13" t="e">
         <f>IF(#REF!+#REF!=#REF!,"ok","revisar")</f>
         <v>#REF!</v>
@@ -2768,7 +2744,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C25" s="13" t="e">
         <f>IF(#REF!+#REF!=#REF!,"ok","revisar")</f>
         <v>#REF!</v>
